--- a/mock_data/student_performance_prepared_2025.xlsx
+++ b/mock_data/student_performance_prepared_2025.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thornthanyasukam/Desktop/VictoryAcademia/Evaluation/app/mock_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4BA49-C9FE-E344-8206-5F2C5EA7CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10280" yWindow="3600" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary6" sheetId="1" r:id="rId1"/>
+    <sheet name="Primary4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
   <si>
     <t>MONTH</t>
   </si>
@@ -152,16 +159,64 @@
   </si>
   <si>
     <t>ชนิดของรูปสามเหลี่ยมโดยแบ่งลักษณะของด้านและมุม, Present Simple Tense, Solar system , ชนิดรูปสามเหลี่ยม ขนาดมุมภายใน, Present Simple Tense, เทคโนโลยีอวกาศ, มาตราตัวสะกด, หาพื้นที่รูปสามเหลี่ยมจากรูปและโจทย์ปัญหา, การสร้างประโยค, ทำข้อสอบข้างขึ้นข้างแรม, ติวข้อสอบ, หาหาพื้นที่รูปสามเหลี่ยม,สี่เหลี่ยมและหาความยาวพื้นที่รูปสี่เหลี่ยม, พยางค์และการประสมคำ, แบบทดสอบเรื่องสุริยุปราคา และจันทรุปราคา, Past Simple Tense (V2/ed), เนื้อหาเกี่ยวกับความยาวรอบรูป แกนสมมาตรของรูปสี่เหลี่ยม, ไตรยางค์ คำเป็นคำตาย, รูปสี่เหลี่ยมคางหมู รูปว่าว, Past Simple Tense (did not - Did?), Past Simple Tense , ทำข้อสอบสอบเข้า ม.1 ชุดที่1 ข้อ1-28, หาพื้นที่รูปสี่เหลี่ยมด้านขนาน , Past Simple Tense , เท๕โนโลยีอวกาศ, สุภาษิต คำพังเพย, โจทย์รูปสี่เหลี่ยม, Test Present Sim / Con-Past Sim, ระบบสุริยะ โลก และเทคโนโยีทางอากาศ, คำที่มาจากภาษาต่างประเทศ, รูปหลายเหลี่ยม</t>
+  </si>
+  <si>
+    <t>Primary4</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>สสารและวัสดุ</t>
+  </si>
+  <si>
+    <t>Overall basic grammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พจนุกรมและส่วนประกอบของประโยค</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, Reading/vocab, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>เศษส่วน, Reading/vocab, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, Reading/vocab, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), Present Simple Negative /Question Lesson test for Present Sim., สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, Reading/vocab, การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>Buenos_Aires</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +280,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +332,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -303,6 +366,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,9 +401,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,14 +577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -613,7 +678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -672,7 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -731,7 +796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -790,7 +855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -849,7 +914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -908,7 +973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -967,7 +1032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1201,6 +1266,560 @@
       </c>
       <c r="S12" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835741A9-B51A-E841-9ED7-AD039C94290D}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>86.67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>26.67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>72.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>73.33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>72.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45965</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>31</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>66.67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>46.67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M6">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>93.33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>73.33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>31</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>73.33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M8">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <v>31</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>86.67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>53.33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>31</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>46.67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>53.33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>72.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>45971</v>
+      </c>
+      <c r="M10">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>31</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/mock_data/student_performance_prepared_2025.xlsx
+++ b/mock_data/student_performance_prepared_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thornthanyasukam/Desktop/VictoryAcademia/Evaluation/app/mock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4BA49-C9FE-E344-8206-5F2C5EA7CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAED5B-47D6-2249-8CA5-C7D717B9380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10280" yWindow="3600" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
   <si>
     <t>MONTH</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2, วัสดุและสสาร</t>
+  </si>
+  <si>
+    <t>เศษส่วน, Reading/vocab, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2</t>
+  </si>
+  <si>
+    <t>สถานะของสาร, เศษส่วน, Reading/vocab, Telling the Time ( o clock ), การใช้พจนานุกรม, การเปลี่ยนรูปเศษส่วนเกินให้เป็นจำนวนคละ, เครื่องมือวัดมวลและปริมาตร แบบทดสอบหลังเรียน, Telling the Time (past), การเรียงคำตามพจนานุกรม, Teling the Time ( to), ตัวนำความร้อน+ฉนวนความร้อน (สมบัติของวัสดุ), Telling Time Activity, พจนานุกรม, เศษส่วนอย่างต่ำ, สมบัติของวัตถุ, Telling the Time ( Test 10 points), สอบหลังเรียนพจนานุกรม, เศษส่วน, สมบัติของวัตถุ, Present Simple  (บอกเล่า/ปฏิเสธ), ส่วนประกอบของประโยค, Present Simple (Singular &amp; Plural), เศษส่วน (บวก ลบ), ส่วนประกอบของประโยค, Present Simple Negative /Question Lesson test for Present Sim., การคูณและการหาร, สมบัติของวัสดุ, ส่วนประกอบของประโยค, Pre-Mid Term2</t>
   </si>
 </sst>
 </file>
@@ -1275,13 +1281,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835741A9-B51A-E841-9ED7-AD039C94290D}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1382,7 +1391,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -1438,7 +1447,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -1550,7 +1559,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>80</v>
@@ -1606,7 +1615,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>90</v>
@@ -1662,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -1718,7 +1727,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>90</v>
@@ -1774,7 +1783,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -1820,6 +1829,118 @@
       </c>
       <c r="R10" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>77.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45965</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>73.33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>46.67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>57.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2">
+        <v>45964</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
